--- a/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_4.xlsx
+++ b/Data_science_outputs/800pop/Monthly_consumption/Montlhy_consumption_4.xlsx
@@ -475,16 +475,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23790.44434631668</v>
+        <v>18069.38534810002</v>
       </c>
       <c r="C2" t="n">
         <v>3088.175257666671</v>
       </c>
       <c r="D2" t="n">
-        <v>5550.806563616668</v>
+        <v>1401.702012583333</v>
       </c>
       <c r="E2" t="n">
-        <v>4374.38299575</v>
+        <v>3133.176648116666</v>
       </c>
       <c r="F2" t="n">
         <v>11.904</v>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22118.43317015002</v>
+        <v>16907.53635013335</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5210.2077691</v>
+        <v>1314.817776483333</v>
       </c>
       <c r="E3" t="n">
-        <v>3946.5675193</v>
+        <v>2813.500064166667</v>
       </c>
       <c r="F3" t="n">
         <v>32.016</v>
@@ -521,16 +521,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23747.71965695002</v>
+        <v>18226.97401928335</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5569.56414715</v>
+        <v>1413.251348733333</v>
       </c>
       <c r="E4" t="n">
-        <v>4344.9059985</v>
+        <v>3000.74609245</v>
       </c>
       <c r="F4" t="n">
         <v>56.544</v>
@@ -544,16 +544,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22926.87980023335</v>
+        <v>17567.87675318335</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5386.213269833333</v>
+        <v>1348.838251616667</v>
       </c>
       <c r="E5" t="n">
-        <v>4116.418790066667</v>
+        <v>3055.1659707</v>
       </c>
       <c r="F5" t="n">
         <v>76.68000000000001</v>
@@ -567,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>23714.15382141668</v>
+        <v>18159.73853466669</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5534.727891616666</v>
+        <v>1388.288883433333</v>
       </c>
       <c r="E6" t="n">
-        <v>4244.234060566667</v>
+        <v>3132.18378535</v>
       </c>
       <c r="F6" t="n">
         <v>101.928</v>
@@ -590,16 +590,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22896.34662543335</v>
+        <v>17709.04371958335</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5369.8620411</v>
+        <v>1345.960124616667</v>
       </c>
       <c r="E7" t="n">
-        <v>4215.8532236</v>
+        <v>2847.8812505</v>
       </c>
       <c r="F7" t="n">
         <v>120.6</v>
@@ -613,16 +613,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23804.20011826669</v>
+        <v>18113.95061670002</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5542.430734166667</v>
+        <v>1394.813221483333</v>
       </c>
       <c r="E8" t="n">
-        <v>4348.973337</v>
+        <v>3077.713966683334</v>
       </c>
       <c r="F8" t="n">
         <v>147.312</v>
@@ -636,16 +636,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23582.11243630002</v>
+        <v>18167.91664681669</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5565.560108166666</v>
+        <v>1400.696152216667</v>
       </c>
       <c r="E9" t="n">
-        <v>4330.154816</v>
+        <v>2903.36318005</v>
       </c>
       <c r="F9" t="n">
         <v>170.376</v>
@@ -659,16 +659,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22695.82810295002</v>
+        <v>17379.53084181668</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5354.346649883334</v>
+        <v>1323.102249716667</v>
       </c>
       <c r="E10" t="n">
-        <v>4192.467797266667</v>
+        <v>3020.723615683334</v>
       </c>
       <c r="F10" t="n">
         <v>186.84</v>
@@ -682,16 +682,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23590.51602306668</v>
+        <v>18184.11341070002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5526.150155566666</v>
+        <v>1402.298082233333</v>
       </c>
       <c r="E11" t="n">
-        <v>4056.9768232</v>
+        <v>3118.2647175</v>
       </c>
       <c r="F11" t="n">
         <v>215.76</v>
@@ -705,16 +705,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22899.11706991669</v>
+        <v>17567.74403295002</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5377.918730716667</v>
+        <v>1347.85230415</v>
       </c>
       <c r="E12" t="n">
-        <v>4325.8675736</v>
+        <v>3019.543172833333</v>
       </c>
       <c r="F12" t="n">
         <v>230.76</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23098.57001308335</v>
+        <v>17639.10509651668</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>5371.253876966667</v>
+        <v>1368.642479616667</v>
       </c>
       <c r="E13" t="n">
-        <v>4181.812139600001</v>
+        <v>2902.3091868</v>
       </c>
       <c r="F13" t="n">
         <v>252.36</v>
